--- a/CorpusStatistic.xlsx
+++ b/CorpusStatistic.xlsx
@@ -12,7 +12,6 @@
     <sheet name="CDTB" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -187,10 +186,6 @@
   </si>
   <si>
     <t>NS, SN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attribution, Background, Elaborate, Enablement, Manner-Means, Summary, Topic-Change</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -485,10 +480,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cause, Comparison, Condition, Contrast, Evaluation, Explanation, Temporal, Tonic-Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>关系汇总列举</t>
     </r>
@@ -513,10 +504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>background, circumstance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cause:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -537,34 +524,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Elaboration:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enablement:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>purpose, enablement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Evaluation:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>evaluation, interpretation, conclusion, comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Explanation:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>evidence, explanation-argumentative, reason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Joint:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -574,10 +545,6 @@
   </si>
   <si>
     <t>Manner-Means:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manner, means</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -626,6 +593,68 @@
       </rPr>
       <t>（19粗粒度：因评测故加入span）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53单核+25多核=78共</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cause, Comparison, Condition, Contrast, Evaluation, Explanation, Temporal, Tonic-Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attribution, Background, Elaborate, Enablement, Manner-Means, Summary, Topic-Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribution, attribution-negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background, circumstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comparison, preference, analogy, proportion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition, hypothetical, contingency, otherwise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contrast, concession, antithesis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elaboration-additional, elaboration-general-specific, elaboration-part-whole,
+elaboration-process-step, elaboration-object-attribute, elaboration-set-member, example, definition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elaborate:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purpose, enablement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluation, interpretation, conclusion, comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evidence, explanation-argumentative, reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manner, means</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>problem-solution, question-answer, statement-response, topic-comment,
+comment-topic, rhetorical-question</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -652,36 +681,6 @@
       </rPr>
       <t xml:space="preserve">, and same-unit </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>problem-solution, question-answer, statement-response, topic-comment,
-comment-topic, rhetorical-question</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attribution, attribution-negative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>elaboration-additional, elaboration-general-specific, elaboration-part-whole,
-elaboration-process-step, elaboration-object-attribute, elaboration-set-member, example, definition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contrast, concession, antithesis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition, hypothetical, contingency, otherwise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comparison, preference, analogy, proportion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53单核+25多核=78共</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1072,163 +1071,163 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1506,11 +1505,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="103452432"/>
-        <c:axId val="103451312"/>
+        <c:axId val="-1561741088"/>
+        <c:axId val="-1561736192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103452432"/>
+        <c:axId val="-1561741088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1553,7 +1552,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103451312"/>
+        <c:crossAx val="-1561736192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1561,7 +1560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103451312"/>
+        <c:axId val="-1561736192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1612,7 +1611,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103452432"/>
+        <c:crossAx val="-1561741088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2609,8 +2608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2624,14 +2623,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -2644,14 +2643,14 @@
       <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -2667,10 +2666,10 @@
       <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="18"/>
@@ -2689,8 +2688,8 @@
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="18"/>
@@ -2709,10 +2708,10 @@
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="42"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="18"/>
@@ -2731,10 +2730,10 @@
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="18"/>
@@ -2750,9 +2749,9 @@
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="18"/>
@@ -2768,14 +2767,14 @@
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="77"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -2791,10 +2790,10 @@
       <c r="A9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="42"/>
+      <c r="B9" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="59"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
       <c r="F9" s="38"/>
@@ -2813,10 +2812,10 @@
       <c r="A10" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="42"/>
+      <c r="B10" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="59"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="18"/>
@@ -2835,10 +2834,10 @@
       <c r="A11" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="42"/>
+      <c r="B11" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="59"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="18"/>
@@ -2855,17 +2854,17 @@
     </row>
     <row r="12" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="73"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -2878,11 +2877,11 @@
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
+      <c r="A13" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="18"/>
@@ -2899,13 +2898,13 @@
     </row>
     <row r="14" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="92">
+        <v>91</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="42">
         <v>2</v>
       </c>
       <c r="E14" s="10"/>
@@ -2923,13 +2922,13 @@
     </row>
     <row r="15" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="92">
+        <v>92</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="42">
         <v>2</v>
       </c>
       <c r="E15" s="10"/>
@@ -2947,13 +2946,13 @@
     </row>
     <row r="16" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="92">
+        <v>93</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="42">
         <v>3</v>
       </c>
       <c r="E16" s="10"/>
@@ -2971,13 +2970,13 @@
     </row>
     <row r="17" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="92">
+        <v>95</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="59"/>
+      <c r="D17" s="42">
         <v>4</v>
       </c>
       <c r="E17" s="10"/>
@@ -2995,13 +2994,13 @@
     </row>
     <row r="18" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="92">
+        <v>96</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="59"/>
+      <c r="D18" s="42">
         <v>4</v>
       </c>
       <c r="E18" s="10"/>
@@ -3019,13 +3018,13 @@
     </row>
     <row r="19" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="92">
+        <v>97</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="59"/>
+      <c r="D19" s="42">
         <v>3</v>
       </c>
       <c r="E19" s="10"/>
@@ -3043,13 +3042,13 @@
     </row>
     <row r="20" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="92">
+        <v>122</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="42">
         <v>8</v>
       </c>
       <c r="E20" s="10"/>
@@ -3067,13 +3066,13 @@
     </row>
     <row r="21" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="92">
+        <v>98</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="42">
         <v>2</v>
       </c>
       <c r="E21" s="10"/>
@@ -3091,13 +3090,13 @@
     </row>
     <row r="22" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="92">
+        <v>99</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="59"/>
+      <c r="D22" s="42">
         <v>4</v>
       </c>
       <c r="E22" s="10"/>
@@ -3115,13 +3114,13 @@
     </row>
     <row r="23" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="92">
+        <v>100</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="42">
         <v>3</v>
       </c>
       <c r="E23" s="10"/>
@@ -3139,13 +3138,13 @@
     </row>
     <row r="24" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="92">
+        <v>101</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="59"/>
+      <c r="D24" s="42">
         <v>2</v>
       </c>
       <c r="E24" s="10"/>
@@ -3163,13 +3162,13 @@
     </row>
     <row r="25" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="92">
+        <v>103</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="42">
         <v>2</v>
       </c>
       <c r="E25" s="10"/>
@@ -3187,13 +3186,13 @@
     </row>
     <row r="26" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="92">
+        <v>104</v>
+      </c>
+      <c r="B26" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="59"/>
+      <c r="D26" s="42">
         <v>6</v>
       </c>
       <c r="E26" s="10"/>
@@ -3211,13 +3210,13 @@
     </row>
     <row r="27" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="92">
+        <v>105</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="42">
         <v>2</v>
       </c>
       <c r="E27" s="10"/>
@@ -3235,13 +3234,13 @@
     </row>
     <row r="28" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="92">
+        <v>107</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="59"/>
+      <c r="D28" s="42">
         <v>5</v>
       </c>
       <c r="E28" s="10"/>
@@ -3259,19 +3258,19 @@
     </row>
     <row r="29" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="92">
+        <v>109</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="42">
         <v>2</v>
       </c>
-      <c r="E29" s="93" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="94"/>
+      <c r="E29" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="67"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -3285,12 +3284,12 @@
     </row>
     <row r="30" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="42"/>
+        <v>111</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="59"/>
       <c r="D30" s="39">
         <v>3</v>
       </c>
@@ -3309,8 +3308,8 @@
     </row>
     <row r="31" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="10">
         <f>SUM(D14:D30)</f>
         <v>57</v>
@@ -3329,14 +3328,14 @@
       <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="57"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="70"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -3352,10 +3351,10 @@
       <c r="A33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="68"/>
+      <c r="B33" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="44"/>
       <c r="D33" s="37"/>
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
@@ -3372,12 +3371,12 @@
     </row>
     <row r="34" spans="1:118" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="68"/>
+      <c r="B34" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="44"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="18"/>
@@ -3394,12 +3393,12 @@
     </row>
     <row r="35" spans="1:118" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="47"/>
+      <c r="C35" s="55"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="18"/>
@@ -3416,37 +3415,37 @@
     </row>
     <row r="36" spans="1:118" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="42"/>
+        <v>43</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="59"/>
       <c r="D36" s="34"/>
       <c r="E36" s="34"/>
       <c r="F36" s="35"/>
     </row>
     <row r="37" spans="1:118" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="67"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="75"/>
+        <v>79</v>
+      </c>
+      <c r="B37" s="43"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:118" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="70"/>
+        <v>44</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
@@ -3561,43 +3560,43 @@
       <c r="DN38" s="17"/>
     </row>
     <row r="39" spans="1:118" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="64" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="66"/>
+      <c r="A39" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="77"/>
     </row>
     <row r="40" spans="1:118" s="15" customFormat="1" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="45"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="47"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="55"/>
     </row>
     <row r="41" spans="1:118" s="15" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="76"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="78"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="58"/>
     </row>
     <row r="42" spans="1:118" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>16</v>
@@ -3669,22 +3668,22 @@
       </c>
     </row>
     <row r="44" spans="1:118" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="84"/>
+      <c r="A44" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="65"/>
     </row>
     <row r="45" spans="1:118" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="79"/>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="81"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="62"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -3694,12 +3693,12 @@
       <c r="M45" s="14"/>
     </row>
     <row r="46" spans="1:118" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="73"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="50"/>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
@@ -3709,22 +3708,22 @@
       <c r="M46" s="14"/>
     </row>
     <row r="47" spans="1:118" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="69"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="70"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="47"/>
     </row>
     <row r="48" spans="1:118" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="57"/>
+      <c r="A48" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="69"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="70"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -3737,14 +3736,14 @@
       <c r="P48" s="9"/>
     </row>
     <row r="49" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
+      <c r="A49" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="s">
@@ -3787,14 +3786,14 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="84" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D52" s="11">
         <v>93.1</v>
@@ -3807,10 +3806,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="52"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="48" t="s">
-        <v>51</v>
+      <c r="A53" s="85"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="81" t="s">
+        <v>50</v>
       </c>
       <c r="D53" s="7">
         <v>0.92700000000000005</v>
@@ -3823,9 +3822,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="49"/>
+      <c r="A54" s="85"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="82"/>
       <c r="D54" s="7">
         <v>0.99199999999999999</v>
       </c>
@@ -3837,9 +3836,9 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="53"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="50"/>
+      <c r="A55" s="86"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="83"/>
       <c r="D55" s="11">
         <v>0.96</v>
       </c>
@@ -3865,18 +3864,18 @@
       <c r="F57" s="26"/>
     </row>
     <row r="58" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
+      <c r="A58" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
     </row>
     <row r="59" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B59" s="26"/>
       <c r="D59" s="26"/>
@@ -3898,44 +3897,44 @@
       <c r="F61" s="26"/>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="54"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
+      <c r="A62" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
     </row>
     <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="57"/>
+      <c r="A63" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="69"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="70"/>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="11" t="s">
+      <c r="D64" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="D64" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="80"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" s="11">
         <v>79.63</v>
@@ -3943,15 +3942,15 @@
       <c r="C65" s="11">
         <v>63.59</v>
       </c>
-      <c r="D65" s="42">
+      <c r="D65" s="59">
         <v>50.73</v>
       </c>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" s="32">
         <v>80.069999999999993</v>
@@ -3959,27 +3958,27 @@
       <c r="C66" s="32">
         <v>64</v>
       </c>
-      <c r="D66" s="42">
+      <c r="D66" s="59">
         <v>51.09</v>
       </c>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B67" s="31">
         <v>69.38</v>
       </c>
       <c r="C67" s="31"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="59"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="79"/>
     </row>
     <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B68" s="31">
         <v>66.17</v>
@@ -3990,14 +3989,14 @@
       <c r="F68" s="29"/>
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69" s="56"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="57"/>
+      <c r="A69" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="70"/>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="15"/>
@@ -6918,21 +6917,35 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="A63:F63"/>
     <mergeCell ref="A69:F69"/>
     <mergeCell ref="A58:F58"/>
     <mergeCell ref="A1:F1"/>
@@ -6949,36 +6962,22 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7004,10 +7003,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="21">
         <v>385094</v>
@@ -7016,7 +7015,7 @@
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="21">
         <v>7184</v>
@@ -7025,7 +7024,7 @@
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="15"/>
       <c r="B3" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="21">
         <v>10757</v>
@@ -7061,14 +7060,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63"/>
+      <c r="A1" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="74"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -7081,14 +7080,14 @@
       <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -7102,22 +7101,22 @@
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="68"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -7126,10 +7125,10 @@
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="89"/>
       <c r="D5" s="89"/>
@@ -7138,10 +7137,10 @@
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="89"/>
       <c r="D6" s="89"/>
@@ -7150,10 +7149,10 @@
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="89"/>
       <c r="D7" s="89"/>
@@ -7161,22 +7160,22 @@
       <c r="F7" s="90"/>
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
     </row>
     <row r="9" spans="1:16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
+      <c r="A9" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -7189,140 +7188,140 @@
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+    </row>
+    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+    </row>
+    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-    </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-    </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="25">
         <v>0.61809999999999998</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="42"/>
+      <c r="A13" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="59"/>
       <c r="C13" s="25">
         <v>0.62112999999999996</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
     </row>
     <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="86">
+      <c r="A14" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="94">
         <v>0.57720000000000005</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
     </row>
     <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="85"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="85"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="85"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="85"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="85"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="85"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
+      <c r="A20" s="93"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="85"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
+      <c r="A21" s="93"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A15:B21"/>
+    <mergeCell ref="C14:C21"/>
+    <mergeCell ref="D11:F21"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B21"/>
-    <mergeCell ref="C14:C21"/>
-    <mergeCell ref="D11:F21"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
